--- a/biology/Mycologie/Lenzites_betulinus/Lenzites_betulinus.xlsx
+++ b/biology/Mycologie/Lenzites_betulinus/Lenzites_betulinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lenzite du bouleau
 Lenzites betulinus, la Lenzite du bouleau, est une espèce de champignons basidiomycètes de la famille des Polyporaceae.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corps
-Sessile, dur ou coriace, se présentant sous la forme d'un plateau semi-circulaire, à surface irrégulière, sillonné de zones concentriques blanches, brunes ou grises, recouvert de poils fins de teinte verdâtre.
-Lamelles
-Épaisses, dures, bifurquées, anastomosées à proximité du bord, de couleur jaune pâle ou gris-paille.
-Chair
-Blanche, dure, cotonneuse.
-Spores
-4-6 x 1,5-2,0 mm, lisses, hyalines, cylindriques ou subcylindriques, blanches dans la masse.
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sessile, dur ou coriace, se présentant sous la forme d'un plateau semi-circulaire, à surface irrégulière, sillonné de zones concentriques blanches, brunes ou grises, recouvert de poils fins de teinte verdâtre.
 </t>
         </is>
       </c>
@@ -547,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il pousse sur le bois de feuillus vivant ou mort, tout au long de l'année.
+          <t>Lamelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Épaisses, dures, bifurquées, anastomosées à proximité du bord, de couleur jaune pâle ou gris-paille.
 </t>
         </is>
       </c>
@@ -578,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non comestible, car chair ligneuse.
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanche, dure, cotonneuse.
 </t>
         </is>
       </c>
@@ -609,10 +632,115 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spores</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-6 x 1,5-2,0 mm, lisses, hyalines, cylindriques ou subcylindriques, blanches dans la masse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse sur le bois de feuillus vivant ou mort, tout au long de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non comestible, car chair ligneuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèces semblables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Stereum hirsutum
 Trametes hirsuta
@@ -620,31 +748,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lenzites_betulinus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lenzites_betulinus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lenzites_betulinus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin betulinus, bouleau, son hôte préféré.
 </t>
